--- a/view/operator/file/template_import_penilaian.xlsx
+++ b/view/operator/file/template_import_penilaian.xlsx
@@ -68,19 +68,25 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -113,7 +119,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -418,7 +424,7 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -432,7 +438,7 @@
     <col min="8" max="8" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
